--- a/Grid_5x5/Solution_NDP_S034/Spreadsheet/Output_VIS17_PuTAss_CapaRestYes_TI_10min_v01.xlsx
+++ b/Grid_5x5/Solution_NDP_S034/Spreadsheet/Output_VIS17_PuTAss_CapaRestYes_TI_10min_v01.xlsx
@@ -738,13 +738,13 @@
     <t>sum of costs for fuel, repair, etc. depending on kilometric performance</t>
   </si>
   <si>
-    <t>11.07.2018 10:33:58</t>
+    <t>12.07.2018 13:15:22</t>
   </si>
   <si>
     <t>02_Grid</t>
   </si>
   <si>
-    <t>Tree_P_1_mult-cost-direct_MATCH_0.2_vs-first</t>
+    <t>Tree_P_1_mult-cost-dir_MATCH_0.2_vs-first</t>
   </si>
   <si>
     <t>Solution_NDP_S034</t>
@@ -753,10 +753,10 @@
     <t xml:space="preserve"> Considering the vehicle scheduling step before the timetabling, to reduce the overall costs</t>
   </si>
   <si>
-    <t>02_Grid_N01_S01_V008_VISUM17_EN_Tree_P_1_mult-cost-direct_MATCH_0.2_vs-first.ver</t>
+    <t>02_Grid_N01_S01_V008_VISUM17_EN_Tree_P_1_mult-cost-dir_MATCH_0.2_vs-first.ver</t>
   </si>
   <si>
-    <t>02_Grid_Linien_Tree_P_1_mult-cost-direct_MATCH_0.2_vs-first.net</t>
+    <t>02_Grid_Linien_Tree_P_1_mult-cost-dir_MATCH_0.2_vs-first.net</t>
   </si>
   <si>
     <t xml:space="preserve"> LinTim(Alexander Schiewe)</t>
@@ -1639,13 +1639,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441798</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1665,8 +1665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="12700"/>
-          <a:ext cx="5826911" cy="4749800"/>
+          <a:off x="0" y="12700"/>
+          <a:ext cx="5775798" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,13 +1678,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441798</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1704,8 +1704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="4965700"/>
-          <a:ext cx="5826911" cy="4749800"/>
+          <a:off x="0" y="4965700"/>
+          <a:ext cx="5775798" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,13 +1717,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441798</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1743,8 +1743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="9918700"/>
-          <a:ext cx="5826911" cy="4749800"/>
+          <a:off x="0" y="9918700"/>
+          <a:ext cx="5775798" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,7 +2708,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.31026020340435939</v>
+        <v>0.31026020340435945</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
